--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +48,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (2)</t>
-  </si>
-  <si>
     <t>1400-11-02</t>
   </si>
   <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -671,9 +671,9 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -815,19 +815,19 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="E12" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="F12" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="G12" s="15">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="H12" s="15">
-        <v>3292993</v>
+        <v>1708760</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -836,19 +836,19 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>951020</v>
+        <v>3031778</v>
       </c>
       <c r="E13" s="11">
-        <v>3031778</v>
+        <v>3166748</v>
       </c>
       <c r="F13" s="11">
         <v>3166748</v>
       </c>
       <c r="G13" s="11">
-        <v>3166748</v>
+        <v>3713154</v>
       </c>
       <c r="H13" s="11">
-        <v>3713154</v>
+        <v>3758124</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -857,19 +857,19 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>167720</v>
+        <v>90811</v>
       </c>
       <c r="E14" s="15">
-        <v>90811</v>
+        <v>153222</v>
       </c>
       <c r="F14" s="15">
-        <v>153222</v>
+        <v>167820</v>
       </c>
       <c r="G14" s="15">
-        <v>167820</v>
+        <v>217659</v>
       </c>
       <c r="H14" s="15">
-        <v>217659</v>
+        <v>400577</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -878,19 +878,19 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>2230119</v>
+        <v>2664833</v>
       </c>
       <c r="E15" s="11">
-        <v>2664833</v>
+        <v>3055890</v>
       </c>
       <c r="F15" s="11">
-        <v>3055890</v>
+        <v>2930414</v>
       </c>
       <c r="G15" s="11">
-        <v>2930414</v>
+        <v>4216028</v>
       </c>
       <c r="H15" s="11">
-        <v>4216028</v>
+        <v>4348400</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -899,19 +899,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>281036</v>
+        <v>237817</v>
       </c>
       <c r="E16" s="15">
-        <v>237817</v>
+        <v>403210</v>
       </c>
       <c r="F16" s="15">
-        <v>403210</v>
+        <v>317726</v>
       </c>
       <c r="G16" s="15">
-        <v>317726</v>
+        <v>194236</v>
       </c>
       <c r="H16" s="15">
-        <v>194236</v>
+        <v>630328</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -941,19 +941,19 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>5051076</v>
+        <v>6908000</v>
       </c>
       <c r="E18" s="17">
-        <v>6908000</v>
+        <v>8003403</v>
       </c>
       <c r="F18" s="17">
-        <v>8003403</v>
+        <v>9992222</v>
       </c>
       <c r="G18" s="17">
-        <v>9992222</v>
+        <v>11634070</v>
       </c>
       <c r="H18" s="17">
-        <v>11634070</v>
+        <v>10846189</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -983,19 +983,19 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>552791</v>
+        <v>628811</v>
       </c>
       <c r="E20" s="15">
-        <v>628811</v>
+        <v>566248</v>
       </c>
       <c r="F20" s="15">
+        <v>601477</v>
+      </c>
+      <c r="G20" s="15">
         <v>566248</v>
       </c>
-      <c r="G20" s="15">
-        <v>601477</v>
-      </c>
       <c r="H20" s="15">
-        <v>566248</v>
+        <v>922755</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1025,19 +1025,19 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>528566</v>
+        <v>524645</v>
       </c>
       <c r="E22" s="15">
-        <v>524645</v>
+        <v>521954</v>
       </c>
       <c r="F22" s="15">
-        <v>521954</v>
+        <v>512973</v>
       </c>
       <c r="G22" s="15">
-        <v>512973</v>
+        <v>510163</v>
       </c>
       <c r="H22" s="15">
-        <v>510163</v>
+        <v>633696</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>58441</v>
       </c>
       <c r="H23" s="11">
-        <v>58441</v>
+        <v>60391</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1109,19 +1109,19 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1139798</v>
+        <v>1211897</v>
       </c>
       <c r="E26" s="17">
-        <v>1211897</v>
+        <v>1146643</v>
       </c>
       <c r="F26" s="17">
-        <v>1146643</v>
+        <v>1172891</v>
       </c>
       <c r="G26" s="17">
-        <v>1172891</v>
+        <v>1134852</v>
       </c>
       <c r="H26" s="17">
-        <v>1134852</v>
+        <v>1616842</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1130,19 +1130,19 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="E27" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="F27" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="G27" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="H27" s="19">
-        <v>12768922</v>
+        <v>12463031</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>631991</v>
+        <v>830963</v>
       </c>
       <c r="E29" s="15">
-        <v>830963</v>
+        <v>1083385</v>
       </c>
       <c r="F29" s="15">
-        <v>1083385</v>
+        <v>913570</v>
       </c>
       <c r="G29" s="15">
-        <v>913570</v>
+        <v>2560323</v>
       </c>
       <c r="H29" s="15">
-        <v>2560323</v>
+        <v>925703</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1204,19 +1204,19 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>1007589</v>
+        <v>936668</v>
       </c>
       <c r="E31" s="15">
-        <v>936668</v>
+        <v>681268</v>
       </c>
       <c r="F31" s="15">
-        <v>681268</v>
+        <v>1105663</v>
       </c>
       <c r="G31" s="15">
-        <v>1105663</v>
+        <v>1072856</v>
       </c>
       <c r="H31" s="15">
-        <v>1072856</v>
+        <v>714195</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>740281</v>
+        <v>734701</v>
       </c>
       <c r="E32" s="11">
-        <v>734701</v>
+        <v>758215</v>
       </c>
       <c r="F32" s="11">
-        <v>758215</v>
+        <v>645142</v>
       </c>
       <c r="G32" s="11">
-        <v>645142</v>
+        <v>1400908</v>
       </c>
       <c r="H32" s="11">
-        <v>1400908</v>
+        <v>1655015</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>150483</v>
+        <v>126335</v>
       </c>
       <c r="E33" s="15">
-        <v>126335</v>
+        <v>125994</v>
       </c>
       <c r="F33" s="15">
-        <v>125994</v>
+        <v>5025972</v>
       </c>
       <c r="G33" s="15">
-        <v>5025972</v>
+        <v>1828709</v>
       </c>
       <c r="H33" s="15">
-        <v>1828709</v>
+        <v>179836</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1267,19 +1267,19 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>36470</v>
+        <v>27890</v>
       </c>
       <c r="E34" s="11">
-        <v>27890</v>
+        <v>34320</v>
       </c>
       <c r="F34" s="11">
         <v>34320</v>
       </c>
       <c r="G34" s="11">
-        <v>34320</v>
+        <v>19389</v>
       </c>
       <c r="H34" s="11">
-        <v>19389</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>2566814</v>
+        <v>2656557</v>
       </c>
       <c r="E37" s="17">
-        <v>2656557</v>
+        <v>2683182</v>
       </c>
       <c r="F37" s="17">
-        <v>2683182</v>
+        <v>7724667</v>
       </c>
       <c r="G37" s="17">
-        <v>7724667</v>
+        <v>6882185</v>
       </c>
       <c r="H37" s="17">
-        <v>6882185</v>
+        <v>3491909</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>17160</v>
       </c>
       <c r="E40" s="11">
-        <v>17160</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -1414,19 +1414,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>318100</v>
+        <v>336577</v>
       </c>
       <c r="E41" s="15">
-        <v>336577</v>
+        <v>353916</v>
       </c>
       <c r="F41" s="15">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="G41" s="15">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="H41" s="15">
-        <v>546069</v>
+        <v>554566</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1435,19 +1435,19 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>335260</v>
+        <v>353737</v>
       </c>
       <c r="E42" s="19">
-        <v>353737</v>
+        <v>353916</v>
       </c>
       <c r="F42" s="19">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="G42" s="19">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="H42" s="19">
-        <v>546069</v>
+        <v>554566</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>2902074</v>
+        <v>3010294</v>
       </c>
       <c r="E43" s="17">
-        <v>3010294</v>
+        <v>3037098</v>
       </c>
       <c r="F43" s="17">
-        <v>3037098</v>
+        <v>8257411</v>
       </c>
       <c r="G43" s="17">
-        <v>8257411</v>
+        <v>7428254</v>
       </c>
       <c r="H43" s="17">
-        <v>7428254</v>
+        <v>4046475</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1554,13 +1554,13 @@
         <v>-13728</v>
       </c>
       <c r="E48" s="11">
-        <v>-13728</v>
+        <v>-58111</v>
       </c>
       <c r="F48" s="11">
         <v>-58111</v>
       </c>
       <c r="G48" s="11">
-        <v>-58111</v>
+        <v>-13</v>
       </c>
       <c r="H48" s="11">
         <v>-13</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F49" s="15">
         <v>555</v>
       </c>
       <c r="G49" s="15">
-        <v>555</v>
+        <v>8458</v>
       </c>
       <c r="H49" s="15">
         <v>8458</v>
@@ -1719,19 +1719,19 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2587528</v>
+        <v>4408331</v>
       </c>
       <c r="E56" s="11">
-        <v>4408331</v>
+        <v>5455504</v>
       </c>
       <c r="F56" s="11">
-        <v>5455504</v>
+        <v>2250258</v>
       </c>
       <c r="G56" s="11">
-        <v>2250258</v>
+        <v>4617223</v>
       </c>
       <c r="H56" s="11">
-        <v>4617223</v>
+        <v>7693111</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1740,19 +1740,19 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3288800</v>
+        <v>5109603</v>
       </c>
       <c r="E57" s="17">
-        <v>5109603</v>
+        <v>6112948</v>
       </c>
       <c r="F57" s="17">
-        <v>6112948</v>
+        <v>2907702</v>
       </c>
       <c r="G57" s="17">
-        <v>2907702</v>
+        <v>5340668</v>
       </c>
       <c r="H57" s="17">
-        <v>5340668</v>
+        <v>8416556</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="E58" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="F58" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="G58" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="H58" s="19">
-        <v>12768922</v>
+        <v>12463031</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8A5FD-1BBF-4C2A-9508-7D1EA95F0F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (2)</t>
-  </si>
-  <si>
     <t>1400-11-02</t>
   </si>
   <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +720,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +833,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,112 +844,112 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="E12" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="F12" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="G12" s="15">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="H12" s="15">
-        <v>3292993</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1708760</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>951020</v>
+        <v>3031778</v>
       </c>
       <c r="E13" s="11">
-        <v>3031778</v>
+        <v>3166748</v>
       </c>
       <c r="F13" s="11">
         <v>3166748</v>
       </c>
       <c r="G13" s="11">
-        <v>3166748</v>
+        <v>3713154</v>
       </c>
       <c r="H13" s="11">
-        <v>3713154</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3758124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>167720</v>
+        <v>90811</v>
       </c>
       <c r="E14" s="15">
-        <v>90811</v>
+        <v>153222</v>
       </c>
       <c r="F14" s="15">
-        <v>153222</v>
+        <v>167820</v>
       </c>
       <c r="G14" s="15">
-        <v>167820</v>
+        <v>217659</v>
       </c>
       <c r="H14" s="15">
-        <v>217659</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>400577</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>2230119</v>
+        <v>2664833</v>
       </c>
       <c r="E15" s="11">
-        <v>2664833</v>
+        <v>3055890</v>
       </c>
       <c r="F15" s="11">
-        <v>3055890</v>
+        <v>2930414</v>
       </c>
       <c r="G15" s="11">
-        <v>2930414</v>
+        <v>4216028</v>
       </c>
       <c r="H15" s="11">
-        <v>4216028</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4348400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>281036</v>
+        <v>237817</v>
       </c>
       <c r="E16" s="15">
-        <v>237817</v>
+        <v>403210</v>
       </c>
       <c r="F16" s="15">
-        <v>403210</v>
+        <v>317726</v>
       </c>
       <c r="G16" s="15">
-        <v>317726</v>
+        <v>194236</v>
       </c>
       <c r="H16" s="15">
-        <v>194236</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>630328</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -935,28 +970,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>5051076</v>
+        <v>6908000</v>
       </c>
       <c r="E18" s="17">
-        <v>6908000</v>
+        <v>8003403</v>
       </c>
       <c r="F18" s="17">
-        <v>8003403</v>
+        <v>9992222</v>
       </c>
       <c r="G18" s="17">
-        <v>9992222</v>
+        <v>11634070</v>
       </c>
       <c r="H18" s="17">
-        <v>11634070</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10846189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -977,28 +1012,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>552791</v>
+        <v>628811</v>
       </c>
       <c r="E20" s="15">
-        <v>628811</v>
+        <v>566248</v>
       </c>
       <c r="F20" s="15">
+        <v>601477</v>
+      </c>
+      <c r="G20" s="15">
         <v>566248</v>
       </c>
-      <c r="G20" s="15">
-        <v>601477</v>
-      </c>
       <c r="H20" s="15">
-        <v>566248</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>922755</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1019,28 +1054,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>528566</v>
+        <v>524645</v>
       </c>
       <c r="E22" s="15">
-        <v>524645</v>
+        <v>521954</v>
       </c>
       <c r="F22" s="15">
-        <v>521954</v>
+        <v>512973</v>
       </c>
       <c r="G22" s="15">
-        <v>512973</v>
+        <v>510163</v>
       </c>
       <c r="H22" s="15">
-        <v>510163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>633696</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1058,10 +1093,10 @@
         <v>58441</v>
       </c>
       <c r="H23" s="11">
-        <v>58441</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1103,49 +1138,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1139798</v>
+        <v>1211897</v>
       </c>
       <c r="E26" s="17">
-        <v>1211897</v>
+        <v>1146643</v>
       </c>
       <c r="F26" s="17">
-        <v>1146643</v>
+        <v>1172891</v>
       </c>
       <c r="G26" s="17">
-        <v>1172891</v>
+        <v>1134852</v>
       </c>
       <c r="H26" s="17">
-        <v>1134852</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1616842</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="E27" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="F27" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="G27" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="H27" s="19">
-        <v>12768922</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12463031</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1156,28 +1191,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>631991</v>
+        <v>830963</v>
       </c>
       <c r="E29" s="15">
-        <v>830963</v>
+        <v>1083385</v>
       </c>
       <c r="F29" s="15">
-        <v>1083385</v>
+        <v>913570</v>
       </c>
       <c r="G29" s="15">
-        <v>913570</v>
+        <v>2560323</v>
       </c>
       <c r="H29" s="15">
-        <v>2560323</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>925703</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1198,91 +1233,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>1007589</v>
+        <v>936668</v>
       </c>
       <c r="E31" s="15">
-        <v>936668</v>
+        <v>681268</v>
       </c>
       <c r="F31" s="15">
-        <v>681268</v>
+        <v>1105663</v>
       </c>
       <c r="G31" s="15">
-        <v>1105663</v>
+        <v>1072856</v>
       </c>
       <c r="H31" s="15">
-        <v>1072856</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>714195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>740281</v>
+        <v>734701</v>
       </c>
       <c r="E32" s="11">
-        <v>734701</v>
+        <v>758215</v>
       </c>
       <c r="F32" s="11">
-        <v>758215</v>
+        <v>645142</v>
       </c>
       <c r="G32" s="11">
-        <v>645142</v>
+        <v>1400908</v>
       </c>
       <c r="H32" s="11">
-        <v>1400908</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1655015</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>150483</v>
+        <v>126335</v>
       </c>
       <c r="E33" s="15">
-        <v>126335</v>
+        <v>125994</v>
       </c>
       <c r="F33" s="15">
-        <v>125994</v>
+        <v>5025972</v>
       </c>
       <c r="G33" s="15">
-        <v>5025972</v>
+        <v>1828709</v>
       </c>
       <c r="H33" s="15">
-        <v>1828709</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>179836</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>36470</v>
+        <v>27890</v>
       </c>
       <c r="E34" s="11">
-        <v>27890</v>
+        <v>34320</v>
       </c>
       <c r="F34" s="11">
         <v>34320</v>
       </c>
       <c r="G34" s="11">
-        <v>34320</v>
+        <v>19389</v>
       </c>
       <c r="H34" s="11">
-        <v>19389</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1324,28 +1359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>2566814</v>
+        <v>2656557</v>
       </c>
       <c r="E37" s="17">
-        <v>2656557</v>
+        <v>2683182</v>
       </c>
       <c r="F37" s="17">
-        <v>2683182</v>
+        <v>7724667</v>
       </c>
       <c r="G37" s="17">
-        <v>7724667</v>
+        <v>6882185</v>
       </c>
       <c r="H37" s="17">
-        <v>6882185</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3491909</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>17160</v>
       </c>
       <c r="E40" s="11">
-        <v>17160</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -1408,70 +1443,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>318100</v>
+        <v>336577</v>
       </c>
       <c r="E41" s="15">
-        <v>336577</v>
+        <v>353916</v>
       </c>
       <c r="F41" s="15">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="G41" s="15">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="H41" s="15">
-        <v>546069</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>554566</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>335260</v>
+        <v>353737</v>
       </c>
       <c r="E42" s="19">
-        <v>353737</v>
+        <v>353916</v>
       </c>
       <c r="F42" s="19">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="G42" s="19">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="H42" s="19">
-        <v>546069</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>554566</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>2902074</v>
+        <v>3010294</v>
       </c>
       <c r="E43" s="17">
-        <v>3010294</v>
+        <v>3037098</v>
       </c>
       <c r="F43" s="17">
-        <v>3037098</v>
+        <v>8257411</v>
       </c>
       <c r="G43" s="17">
-        <v>8257411</v>
+        <v>7428254</v>
       </c>
       <c r="H43" s="17">
-        <v>7428254</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4046475</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1517,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1554,19 +1589,19 @@
         <v>-13728</v>
       </c>
       <c r="E48" s="11">
-        <v>-13728</v>
+        <v>-58111</v>
       </c>
       <c r="F48" s="11">
         <v>-58111</v>
       </c>
       <c r="G48" s="11">
-        <v>-58111</v>
+        <v>-13</v>
       </c>
       <c r="H48" s="11">
         <v>-13</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1575,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F49" s="15">
         <v>555</v>
       </c>
       <c r="G49" s="15">
-        <v>555</v>
+        <v>8458</v>
       </c>
       <c r="H49" s="15">
         <v>8458</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1643,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,70 +1748,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2587528</v>
+        <v>4408331</v>
       </c>
       <c r="E56" s="11">
-        <v>4408331</v>
+        <v>5455504</v>
       </c>
       <c r="F56" s="11">
-        <v>5455504</v>
+        <v>2250258</v>
       </c>
       <c r="G56" s="11">
-        <v>2250258</v>
+        <v>4617223</v>
       </c>
       <c r="H56" s="11">
-        <v>4617223</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7693111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3288800</v>
+        <v>5109603</v>
       </c>
       <c r="E57" s="17">
-        <v>5109603</v>
+        <v>6112948</v>
       </c>
       <c r="F57" s="17">
-        <v>6112948</v>
+        <v>2907702</v>
       </c>
       <c r="G57" s="17">
-        <v>2907702</v>
+        <v>5340668</v>
       </c>
       <c r="H57" s="17">
-        <v>5340668</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8416556</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="E58" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="F58" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="G58" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="H58" s="19">
-        <v>12768922</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12463031</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8A5FD-1BBF-4C2A-9508-7D1EA95F0F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +36,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +69,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-09-05 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (2)</t>
+  </si>
+  <si>
     <t>1400-11-02</t>
   </si>
   <si>
-    <t>1401-11-01 (8)</t>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +96,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -220,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +447,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -430,7 +459,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -477,23 +506,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -529,23 +541,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,21 +692,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="A12:D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +718,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +734,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +750,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +764,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +780,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +796,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +810,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +836,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +896,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +912,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>628737</v>
+      </c>
+      <c r="E12" s="15">
+        <v>539172</v>
+      </c>
+      <c r="F12" s="15">
+        <v>819625</v>
+      </c>
+      <c r="G12" s="15">
+        <v>210560</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1421181</v>
+      </c>
+      <c r="I12" s="15">
         <v>882761</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>1224333</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>3409514</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>3292993</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1708760</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1301499</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2084468</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2130113</v>
+      </c>
+      <c r="H13" s="11">
+        <v>951020</v>
+      </c>
+      <c r="I13" s="11">
         <v>3031778</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>3166748</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>3166748</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>3713154</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>3758124</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>851191</v>
+      </c>
+      <c r="E14" s="15">
+        <v>668421</v>
+      </c>
+      <c r="F14" s="15">
+        <v>243705</v>
+      </c>
+      <c r="G14" s="15">
+        <v>200558</v>
+      </c>
+      <c r="H14" s="15">
+        <v>167720</v>
+      </c>
+      <c r="I14" s="15">
         <v>90811</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>153222</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>167820</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>217659</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>400577</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1547454</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1880417</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1936525</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2048790</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2230119</v>
+      </c>
+      <c r="I15" s="11">
         <v>2664833</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>3055890</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>2930414</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>4216028</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>4348400</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>248554</v>
+      </c>
+      <c r="E16" s="15">
+        <v>236120</v>
+      </c>
+      <c r="F16" s="15">
+        <v>301162</v>
+      </c>
+      <c r="G16" s="15">
+        <v>274095</v>
+      </c>
+      <c r="H16" s="15">
+        <v>281036</v>
+      </c>
+      <c r="I16" s="15">
         <v>237817</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>403210</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>317726</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>194236</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>630328</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1118,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>3425936</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4625629</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5385485</v>
+      </c>
+      <c r="G18" s="17">
+        <v>4864116</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5051076</v>
+      </c>
+      <c r="I18" s="17">
         <v>6908000</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>8003403</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>9992222</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>11634070</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>10846189</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1190,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="E20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="F20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="G20" s="15">
+        <v>678147</v>
+      </c>
+      <c r="H20" s="15">
+        <v>552791</v>
+      </c>
+      <c r="I20" s="15">
         <v>628811</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>566248</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>601477</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>566248</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>922755</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,31 +1262,61 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>511193</v>
+      </c>
+      <c r="E22" s="15">
+        <v>517135</v>
+      </c>
+      <c r="F22" s="15">
+        <v>531044</v>
+      </c>
+      <c r="G22" s="15">
+        <v>472533</v>
+      </c>
+      <c r="H22" s="15">
+        <v>528566</v>
+      </c>
+      <c r="I22" s="15">
         <v>524645</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>521954</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>512973</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>510163</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>633696</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1093,33 +1332,63 @@
         <v>58441</v>
       </c>
       <c r="H23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="I23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="J23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="K23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="L23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="M23" s="11">
         <v>60391</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1406,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>575892</v>
+      </c>
+      <c r="E26" s="17">
+        <v>581834</v>
+      </c>
+      <c r="F26" s="17">
+        <v>595743</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1209121</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1139798</v>
+      </c>
+      <c r="I26" s="17">
         <v>1211897</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>1146643</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1172891</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>1134852</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>1616842</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5207463</v>
+      </c>
+      <c r="F27" s="19">
+        <v>5981228</v>
+      </c>
+      <c r="G27" s="19">
+        <v>6073237</v>
+      </c>
+      <c r="H27" s="19">
+        <v>6190874</v>
+      </c>
+      <c r="I27" s="19">
         <v>8119897</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>9150046</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>11165113</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>12768922</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>12463031</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,119 +1504,199 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>521071</v>
+      </c>
+      <c r="E29" s="15">
+        <v>492741</v>
+      </c>
+      <c r="F29" s="15">
+        <v>448646</v>
+      </c>
+      <c r="G29" s="15">
+        <v>531435</v>
+      </c>
+      <c r="H29" s="15">
+        <v>631991</v>
+      </c>
+      <c r="I29" s="15">
         <v>830963</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>1083385</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>913570</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>2560323</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>925703</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>283808</v>
+      </c>
+      <c r="E31" s="15">
+        <v>366025</v>
+      </c>
+      <c r="F31" s="15">
+        <v>477357</v>
+      </c>
+      <c r="G31" s="15">
+        <v>195113</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1007589</v>
+      </c>
+      <c r="I31" s="15">
         <v>936668</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>681268</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>1105663</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>1072856</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>714195</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>417226</v>
+      </c>
+      <c r="E32" s="11">
+        <v>418593</v>
+      </c>
+      <c r="F32" s="11">
+        <v>457817</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>740281</v>
+      </c>
+      <c r="I32" s="11">
         <v>734701</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>758215</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>645142</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>1400908</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1655015</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>143524</v>
+      </c>
+      <c r="E33" s="15">
+        <v>143441</v>
+      </c>
+      <c r="F33" s="15">
+        <v>116424</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2180228</v>
+      </c>
+      <c r="H33" s="15">
+        <v>150483</v>
+      </c>
+      <c r="I33" s="15">
         <v>126335</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>125994</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>5025972</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>1828709</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>179836</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>27890</v>
+        <v>34320</v>
       </c>
       <c r="E34" s="11">
         <v>34320</v>
@@ -1311,15 +1705,30 @@
         <v>34320</v>
       </c>
       <c r="G34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="H34" s="11">
+        <v>36470</v>
+      </c>
+      <c r="I34" s="11">
+        <v>27890</v>
+      </c>
+      <c r="J34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="K34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="L34" s="11">
         <v>19389</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>17160</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1746,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1782,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>1399949</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1455120</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1534564</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2941096</v>
+      </c>
+      <c r="H37" s="17">
+        <v>2566814</v>
+      </c>
+      <c r="I37" s="17">
         <v>2656557</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>2683182</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>7724667</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>6882185</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>3491909</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1854,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>51480</v>
+      </c>
+      <c r="E40" s="11">
+        <v>51480</v>
+      </c>
+      <c r="F40" s="11">
+        <v>34320</v>
+      </c>
+      <c r="G40" s="11">
+        <v>34320</v>
+      </c>
+      <c r="H40" s="11">
         <v>17160</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>17160</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>236048</v>
+      </c>
+      <c r="E41" s="15">
+        <v>241238</v>
+      </c>
+      <c r="F41" s="15">
+        <v>242009</v>
+      </c>
+      <c r="G41" s="15">
+        <v>325502</v>
+      </c>
+      <c r="H41" s="15">
+        <v>318100</v>
+      </c>
+      <c r="I41" s="15">
         <v>336577</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>353916</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>532744</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>546069</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>554566</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>287528</v>
+      </c>
+      <c r="E42" s="19">
+        <v>292718</v>
+      </c>
+      <c r="F42" s="19">
+        <v>276329</v>
+      </c>
+      <c r="G42" s="19">
+        <v>359822</v>
+      </c>
+      <c r="H42" s="19">
+        <v>335260</v>
+      </c>
+      <c r="I42" s="19">
         <v>353737</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>353916</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>532744</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>546069</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>554566</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>1687477</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1747838</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1810893</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3300918</v>
+      </c>
+      <c r="H43" s="17">
+        <v>2902074</v>
+      </c>
+      <c r="I43" s="17">
         <v>3010294</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>3037098</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>8257411</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>7428254</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>4046475</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,10 +2060,15 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1537,10 +2086,25 @@
       <c r="H45" s="15">
         <v>650000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2122,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,52 +2158,97 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-66171</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>-13728</v>
       </c>
-      <c r="E48" s="11">
+      <c r="I48" s="11">
+        <v>-13728</v>
+      </c>
+      <c r="J48" s="11">
         <v>-58111</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-58111</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-13</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-13</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7168</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>555</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>555</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>8458</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>8458</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -1642,10 +2266,25 @@
       <c r="H50" s="11">
         <v>65000</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2302,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2374,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2446,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>1599351</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2744625</v>
+      </c>
+      <c r="F56" s="11">
+        <v>3514338</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2057319</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2587528</v>
+      </c>
+      <c r="I56" s="11">
         <v>4408331</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>5455504</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>2250258</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>4617223</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>7693111</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>2314351</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3459625</v>
+      </c>
+      <c r="F57" s="17">
+        <v>4170335</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2772319</v>
+      </c>
+      <c r="H57" s="17">
+        <v>3288800</v>
+      </c>
+      <c r="I57" s="17">
         <v>5109603</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>6112948</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>2907702</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>5340668</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>8416556</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="E58" s="19">
+        <v>5207463</v>
+      </c>
+      <c r="F58" s="19">
+        <v>5981228</v>
+      </c>
+      <c r="G58" s="19">
+        <v>6073237</v>
+      </c>
+      <c r="H58" s="19">
+        <v>6190874</v>
+      </c>
+      <c r="I58" s="19">
         <v>8119897</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>9150046</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>11165113</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>12768922</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>12463031</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2578,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8A5FD-1BBF-4C2A-9508-7D1EA95F0F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A6980-653A-42FA-8530-B1676BB3BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +70,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-09-05 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (2)</t>
+  </si>
+  <si>
     <t>1400-11-02</t>
   </si>
   <si>
-    <t>1401-11-01 (8)</t>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +97,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>628737</v>
+      </c>
+      <c r="E12" s="15">
+        <v>539172</v>
+      </c>
+      <c r="F12" s="15">
+        <v>819625</v>
+      </c>
+      <c r="G12" s="15">
+        <v>210560</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1421181</v>
+      </c>
+      <c r="I12" s="15">
         <v>882761</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>1224333</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>3409514</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>3292993</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1708760</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1301499</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2084468</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2130113</v>
+      </c>
+      <c r="H13" s="11">
+        <v>951020</v>
+      </c>
+      <c r="I13" s="11">
         <v>3031778</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>3166748</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>3166748</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>3713154</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>3758124</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>851191</v>
+      </c>
+      <c r="E14" s="15">
+        <v>668421</v>
+      </c>
+      <c r="F14" s="15">
+        <v>243705</v>
+      </c>
+      <c r="G14" s="15">
+        <v>200558</v>
+      </c>
+      <c r="H14" s="15">
+        <v>167720</v>
+      </c>
+      <c r="I14" s="15">
         <v>90811</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>153222</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>167820</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>217659</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>400577</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1547454</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1880417</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1936525</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2048790</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2230119</v>
+      </c>
+      <c r="I15" s="11">
         <v>2664833</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>3055890</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>2930414</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>4216028</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>4348400</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>248554</v>
+      </c>
+      <c r="E16" s="15">
+        <v>236120</v>
+      </c>
+      <c r="F16" s="15">
+        <v>301162</v>
+      </c>
+      <c r="G16" s="15">
+        <v>274095</v>
+      </c>
+      <c r="H16" s="15">
+        <v>281036</v>
+      </c>
+      <c r="I16" s="15">
         <v>237817</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>403210</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>317726</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>194236</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>630328</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>3425936</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4625629</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5385485</v>
+      </c>
+      <c r="G18" s="17">
+        <v>4864116</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5051076</v>
+      </c>
+      <c r="I18" s="17">
         <v>6908000</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>8003403</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>9992222</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>11634070</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>10846189</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1223,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="E20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="F20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="G20" s="15">
+        <v>678147</v>
+      </c>
+      <c r="H20" s="15">
+        <v>552791</v>
+      </c>
+      <c r="I20" s="15">
         <v>628811</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>566248</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>601477</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>566248</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>922755</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,31 +1295,61 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>511193</v>
+      </c>
+      <c r="E22" s="15">
+        <v>517135</v>
+      </c>
+      <c r="F22" s="15">
+        <v>531044</v>
+      </c>
+      <c r="G22" s="15">
+        <v>472533</v>
+      </c>
+      <c r="H22" s="15">
+        <v>528566</v>
+      </c>
+      <c r="I22" s="15">
         <v>524645</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>521954</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>512973</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>510163</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>633696</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1093,33 +1365,63 @@
         <v>58441</v>
       </c>
       <c r="H23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="I23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="J23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="K23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="L23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="M23" s="11">
         <v>60391</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>575892</v>
+      </c>
+      <c r="E26" s="17">
+        <v>581834</v>
+      </c>
+      <c r="F26" s="17">
+        <v>595743</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1209121</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1139798</v>
+      </c>
+      <c r="I26" s="17">
         <v>1211897</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>1146643</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1172891</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>1134852</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>1616842</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5207463</v>
+      </c>
+      <c r="F27" s="19">
+        <v>5981228</v>
+      </c>
+      <c r="G27" s="19">
+        <v>6073237</v>
+      </c>
+      <c r="H27" s="19">
+        <v>6190874</v>
+      </c>
+      <c r="I27" s="19">
         <v>8119897</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>9150046</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>11165113</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>12768922</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>12463031</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,119 +1537,199 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>521071</v>
+      </c>
+      <c r="E29" s="15">
+        <v>492741</v>
+      </c>
+      <c r="F29" s="15">
+        <v>448646</v>
+      </c>
+      <c r="G29" s="15">
+        <v>531435</v>
+      </c>
+      <c r="H29" s="15">
+        <v>631991</v>
+      </c>
+      <c r="I29" s="15">
         <v>830963</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>1083385</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>913570</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>2560323</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>925703</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>283808</v>
+      </c>
+      <c r="E31" s="15">
+        <v>366025</v>
+      </c>
+      <c r="F31" s="15">
+        <v>477357</v>
+      </c>
+      <c r="G31" s="15">
+        <v>195113</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1007589</v>
+      </c>
+      <c r="I31" s="15">
         <v>936668</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>681268</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>1105663</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>1072856</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>714195</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>417226</v>
+      </c>
+      <c r="E32" s="11">
+        <v>418593</v>
+      </c>
+      <c r="F32" s="11">
+        <v>457817</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>740281</v>
+      </c>
+      <c r="I32" s="11">
         <v>734701</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>758215</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>645142</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>1400908</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1655015</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>143524</v>
+      </c>
+      <c r="E33" s="15">
+        <v>143441</v>
+      </c>
+      <c r="F33" s="15">
+        <v>116424</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2180228</v>
+      </c>
+      <c r="H33" s="15">
+        <v>150483</v>
+      </c>
+      <c r="I33" s="15">
         <v>126335</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>125994</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>5025972</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>1828709</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>179836</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>27890</v>
+        <v>34320</v>
       </c>
       <c r="E34" s="11">
         <v>34320</v>
@@ -1311,15 +1738,30 @@
         <v>34320</v>
       </c>
       <c r="G34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="H34" s="11">
+        <v>36470</v>
+      </c>
+      <c r="I34" s="11">
+        <v>27890</v>
+      </c>
+      <c r="J34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="K34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="L34" s="11">
         <v>19389</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>17160</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>1399949</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1455120</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1534564</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2941096</v>
+      </c>
+      <c r="H37" s="17">
+        <v>2566814</v>
+      </c>
+      <c r="I37" s="17">
         <v>2656557</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>2683182</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>7724667</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>6882185</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>3491909</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1887,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>51480</v>
+      </c>
+      <c r="E40" s="11">
+        <v>51480</v>
+      </c>
+      <c r="F40" s="11">
+        <v>34320</v>
+      </c>
+      <c r="G40" s="11">
+        <v>34320</v>
+      </c>
+      <c r="H40" s="11">
         <v>17160</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>17160</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>236048</v>
+      </c>
+      <c r="E41" s="15">
+        <v>241238</v>
+      </c>
+      <c r="F41" s="15">
+        <v>242009</v>
+      </c>
+      <c r="G41" s="15">
+        <v>325502</v>
+      </c>
+      <c r="H41" s="15">
+        <v>318100</v>
+      </c>
+      <c r="I41" s="15">
         <v>336577</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>353916</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>532744</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>546069</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>554566</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>287528</v>
+      </c>
+      <c r="E42" s="19">
+        <v>292718</v>
+      </c>
+      <c r="F42" s="19">
+        <v>276329</v>
+      </c>
+      <c r="G42" s="19">
+        <v>359822</v>
+      </c>
+      <c r="H42" s="19">
+        <v>335260</v>
+      </c>
+      <c r="I42" s="19">
         <v>353737</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>353916</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>532744</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>546069</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>554566</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>1687477</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1747838</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1810893</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3300918</v>
+      </c>
+      <c r="H43" s="17">
+        <v>2902074</v>
+      </c>
+      <c r="I43" s="17">
         <v>3010294</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>3037098</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>8257411</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>7428254</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>4046475</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,10 +2093,15 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1537,10 +2119,25 @@
       <c r="H45" s="15">
         <v>650000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,52 +2191,97 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-66171</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>-13728</v>
       </c>
-      <c r="E48" s="11">
+      <c r="I48" s="11">
+        <v>-13728</v>
+      </c>
+      <c r="J48" s="11">
         <v>-58111</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-58111</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-13</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-13</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7168</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>555</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>555</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>8458</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>8458</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -1642,10 +2299,25 @@
       <c r="H50" s="11">
         <v>65000</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>1599351</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2744625</v>
+      </c>
+      <c r="F56" s="11">
+        <v>3514338</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2057319</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2587528</v>
+      </c>
+      <c r="I56" s="11">
         <v>4408331</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>5455504</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>2250258</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>4617223</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>7693111</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>2314351</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3459625</v>
+      </c>
+      <c r="F57" s="17">
+        <v>4170335</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2772319</v>
+      </c>
+      <c r="H57" s="17">
+        <v>3288800</v>
+      </c>
+      <c r="I57" s="17">
         <v>5109603</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>6112948</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>2907702</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>5340668</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>8416556</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="E58" s="19">
+        <v>5207463</v>
+      </c>
+      <c r="F58" s="19">
+        <v>5981228</v>
+      </c>
+      <c r="G58" s="19">
+        <v>6073237</v>
+      </c>
+      <c r="H58" s="19">
+        <v>6190874</v>
+      </c>
+      <c r="I58" s="19">
         <v>8119897</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>9150046</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>11165113</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>12768922</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>12463031</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A6980-653A-42FA-8530-B1676BB3BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -250,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +447,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -460,7 +459,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -507,23 +506,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -559,23 +541,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A90D27-7970-4355-812C-5F11A16AD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-09-05 (2)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1400-11-02</t>
   </si>
   <si>
-    <t>1401-11-19 (9)</t>
+    <t>1402-02-27 (12)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-19 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-27 (3)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -459,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -506,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,23 +727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -722,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -768,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -814,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -850,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -886,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -900,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -916,187 +952,187 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>628737</v>
+        <v>539172</v>
       </c>
       <c r="E12" s="15">
-        <v>539172</v>
+        <v>819625</v>
       </c>
       <c r="F12" s="15">
-        <v>819625</v>
+        <v>210560</v>
       </c>
       <c r="G12" s="15">
-        <v>210560</v>
+        <v>1421181</v>
       </c>
       <c r="H12" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="I12" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="J12" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="K12" s="15">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="L12" s="15">
-        <v>3292993</v>
+        <v>1708760</v>
       </c>
       <c r="M12" s="15">
-        <v>1708760</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1251834</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>150000</v>
+        <v>1301499</v>
       </c>
       <c r="E13" s="11">
-        <v>1301499</v>
+        <v>2084468</v>
       </c>
       <c r="F13" s="11">
-        <v>2084468</v>
+        <v>2130113</v>
       </c>
       <c r="G13" s="11">
-        <v>2130113</v>
+        <v>951020</v>
       </c>
       <c r="H13" s="11">
-        <v>951020</v>
+        <v>3031778</v>
       </c>
       <c r="I13" s="11">
-        <v>3031778</v>
+        <v>3166748</v>
       </c>
       <c r="J13" s="11">
         <v>3166748</v>
       </c>
       <c r="K13" s="11">
-        <v>3166748</v>
+        <v>3713154</v>
       </c>
       <c r="L13" s="11">
-        <v>3713154</v>
+        <v>3758124</v>
       </c>
       <c r="M13" s="11">
-        <v>3758124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7051746</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>851191</v>
+        <v>668421</v>
       </c>
       <c r="E14" s="15">
-        <v>668421</v>
+        <v>243705</v>
       </c>
       <c r="F14" s="15">
-        <v>243705</v>
+        <v>200558</v>
       </c>
       <c r="G14" s="15">
-        <v>200558</v>
+        <v>167720</v>
       </c>
       <c r="H14" s="15">
-        <v>167720</v>
+        <v>90811</v>
       </c>
       <c r="I14" s="15">
-        <v>90811</v>
+        <v>153222</v>
       </c>
       <c r="J14" s="15">
-        <v>153222</v>
+        <v>167820</v>
       </c>
       <c r="K14" s="15">
-        <v>167820</v>
+        <v>217659</v>
       </c>
       <c r="L14" s="15">
-        <v>217659</v>
+        <v>400577</v>
       </c>
       <c r="M14" s="15">
-        <v>400577</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>593130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1547454</v>
+        <v>1880417</v>
       </c>
       <c r="E15" s="11">
-        <v>1880417</v>
+        <v>1936525</v>
       </c>
       <c r="F15" s="11">
-        <v>1936525</v>
+        <v>2048790</v>
       </c>
       <c r="G15" s="11">
-        <v>2048790</v>
+        <v>2230119</v>
       </c>
       <c r="H15" s="11">
-        <v>2230119</v>
+        <v>2664833</v>
       </c>
       <c r="I15" s="11">
-        <v>2664833</v>
+        <v>3055890</v>
       </c>
       <c r="J15" s="11">
-        <v>3055890</v>
+        <v>2930414</v>
       </c>
       <c r="K15" s="11">
-        <v>2930414</v>
+        <v>4216028</v>
       </c>
       <c r="L15" s="11">
-        <v>4216028</v>
+        <v>4348400</v>
       </c>
       <c r="M15" s="11">
-        <v>4348400</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5147002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>248554</v>
+        <v>236120</v>
       </c>
       <c r="E16" s="15">
-        <v>236120</v>
+        <v>301162</v>
       </c>
       <c r="F16" s="15">
-        <v>301162</v>
+        <v>274095</v>
       </c>
       <c r="G16" s="15">
-        <v>274095</v>
+        <v>281036</v>
       </c>
       <c r="H16" s="15">
-        <v>281036</v>
+        <v>237817</v>
       </c>
       <c r="I16" s="15">
-        <v>237817</v>
+        <v>403210</v>
       </c>
       <c r="J16" s="15">
-        <v>403210</v>
+        <v>317726</v>
       </c>
       <c r="K16" s="15">
-        <v>317726</v>
+        <v>194236</v>
       </c>
       <c r="L16" s="15">
-        <v>194236</v>
+        <v>630328</v>
       </c>
       <c r="M16" s="15">
-        <v>630328</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1039192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1132,43 +1168,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>3425936</v>
+        <v>4625629</v>
       </c>
       <c r="E18" s="17">
-        <v>4625629</v>
+        <v>5385485</v>
       </c>
       <c r="F18" s="17">
-        <v>5385485</v>
+        <v>4864116</v>
       </c>
       <c r="G18" s="17">
-        <v>4864116</v>
+        <v>5051076</v>
       </c>
       <c r="H18" s="17">
-        <v>5051076</v>
+        <v>6908000</v>
       </c>
       <c r="I18" s="17">
-        <v>6908000</v>
+        <v>8003403</v>
       </c>
       <c r="J18" s="17">
-        <v>8003403</v>
+        <v>9992222</v>
       </c>
       <c r="K18" s="17">
-        <v>9992222</v>
+        <v>11634070</v>
       </c>
       <c r="L18" s="17">
-        <v>11634070</v>
+        <v>10846189</v>
       </c>
       <c r="M18" s="17">
-        <v>10846189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15082904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1216,31 +1252,31 @@
         <v>6258</v>
       </c>
       <c r="F20" s="15">
-        <v>6258</v>
+        <v>678147</v>
       </c>
       <c r="G20" s="15">
-        <v>678147</v>
+        <v>552791</v>
       </c>
       <c r="H20" s="15">
-        <v>552791</v>
+        <v>628811</v>
       </c>
       <c r="I20" s="15">
-        <v>628811</v>
+        <v>566248</v>
       </c>
       <c r="J20" s="15">
+        <v>601477</v>
+      </c>
+      <c r="K20" s="15">
         <v>566248</v>
       </c>
-      <c r="K20" s="15">
-        <v>601477</v>
-      </c>
       <c r="L20" s="15">
-        <v>566248</v>
+        <v>922755</v>
       </c>
       <c r="M20" s="15">
-        <v>922755</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1238176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1276,43 +1312,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>511193</v>
+        <v>517135</v>
       </c>
       <c r="E22" s="15">
-        <v>517135</v>
+        <v>531044</v>
       </c>
       <c r="F22" s="15">
-        <v>531044</v>
+        <v>472533</v>
       </c>
       <c r="G22" s="15">
-        <v>472533</v>
+        <v>528566</v>
       </c>
       <c r="H22" s="15">
-        <v>528566</v>
+        <v>524645</v>
       </c>
       <c r="I22" s="15">
-        <v>524645</v>
+        <v>521954</v>
       </c>
       <c r="J22" s="15">
-        <v>521954</v>
+        <v>512973</v>
       </c>
       <c r="K22" s="15">
-        <v>512973</v>
+        <v>510163</v>
       </c>
       <c r="L22" s="15">
-        <v>510163</v>
+        <v>633696</v>
       </c>
       <c r="M22" s="15">
-        <v>633696</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>684469</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1342,13 +1378,13 @@
         <v>58441</v>
       </c>
       <c r="L23" s="11">
-        <v>58441</v>
+        <v>60391</v>
       </c>
       <c r="M23" s="11">
-        <v>60391</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>61867</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1420,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>575892</v>
+        <v>581834</v>
       </c>
       <c r="E26" s="17">
-        <v>581834</v>
+        <v>595743</v>
       </c>
       <c r="F26" s="17">
-        <v>595743</v>
+        <v>1209121</v>
       </c>
       <c r="G26" s="17">
-        <v>1209121</v>
+        <v>1139798</v>
       </c>
       <c r="H26" s="17">
-        <v>1139798</v>
+        <v>1211897</v>
       </c>
       <c r="I26" s="17">
-        <v>1211897</v>
+        <v>1146643</v>
       </c>
       <c r="J26" s="17">
-        <v>1146643</v>
+        <v>1172891</v>
       </c>
       <c r="K26" s="17">
-        <v>1172891</v>
+        <v>1134852</v>
       </c>
       <c r="L26" s="17">
-        <v>1134852</v>
+        <v>1616842</v>
       </c>
       <c r="M26" s="17">
-        <v>1616842</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1984512</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>4001828</v>
+        <v>5207463</v>
       </c>
       <c r="E27" s="19">
-        <v>5207463</v>
+        <v>5981228</v>
       </c>
       <c r="F27" s="19">
-        <v>5981228</v>
+        <v>6073237</v>
       </c>
       <c r="G27" s="19">
-        <v>6073237</v>
+        <v>6190874</v>
       </c>
       <c r="H27" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="I27" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="J27" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="K27" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="L27" s="19">
-        <v>12768922</v>
+        <v>12463031</v>
       </c>
       <c r="M27" s="19">
-        <v>12463031</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17067416</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1508,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>521071</v>
+        <v>492741</v>
       </c>
       <c r="E29" s="15">
-        <v>492741</v>
+        <v>448646</v>
       </c>
       <c r="F29" s="15">
-        <v>448646</v>
+        <v>531435</v>
       </c>
       <c r="G29" s="15">
-        <v>531435</v>
+        <v>631991</v>
       </c>
       <c r="H29" s="15">
-        <v>631991</v>
+        <v>830963</v>
       </c>
       <c r="I29" s="15">
-        <v>830963</v>
+        <v>1083385</v>
       </c>
       <c r="J29" s="15">
-        <v>1083385</v>
+        <v>913570</v>
       </c>
       <c r="K29" s="15">
-        <v>913570</v>
+        <v>2560323</v>
       </c>
       <c r="L29" s="15">
-        <v>2560323</v>
+        <v>925703</v>
       </c>
       <c r="M29" s="15">
-        <v>925703</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1891976</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1580,115 +1616,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>283808</v>
+        <v>366025</v>
       </c>
       <c r="E31" s="15">
-        <v>366025</v>
+        <v>477357</v>
       </c>
       <c r="F31" s="15">
-        <v>477357</v>
+        <v>195113</v>
       </c>
       <c r="G31" s="15">
-        <v>195113</v>
+        <v>1007589</v>
       </c>
       <c r="H31" s="15">
-        <v>1007589</v>
+        <v>936668</v>
       </c>
       <c r="I31" s="15">
-        <v>936668</v>
+        <v>681268</v>
       </c>
       <c r="J31" s="15">
-        <v>681268</v>
+        <v>1105663</v>
       </c>
       <c r="K31" s="15">
-        <v>1105663</v>
+        <v>1072856</v>
       </c>
       <c r="L31" s="15">
-        <v>1072856</v>
+        <v>714195</v>
       </c>
       <c r="M31" s="15">
-        <v>714195</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1017875</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>417226</v>
+        <v>418593</v>
       </c>
       <c r="E32" s="11">
-        <v>418593</v>
+        <v>457817</v>
       </c>
       <c r="F32" s="11">
-        <v>457817</v>
+        <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>740281</v>
       </c>
       <c r="H32" s="11">
-        <v>740281</v>
+        <v>734701</v>
       </c>
       <c r="I32" s="11">
-        <v>734701</v>
+        <v>758215</v>
       </c>
       <c r="J32" s="11">
-        <v>758215</v>
+        <v>645142</v>
       </c>
       <c r="K32" s="11">
-        <v>645142</v>
+        <v>1400908</v>
       </c>
       <c r="L32" s="11">
-        <v>1400908</v>
+        <v>1655015</v>
       </c>
       <c r="M32" s="11">
-        <v>1655015</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1838730</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>143524</v>
+        <v>143441</v>
       </c>
       <c r="E33" s="15">
-        <v>143441</v>
+        <v>116424</v>
       </c>
       <c r="F33" s="15">
-        <v>116424</v>
+        <v>2180228</v>
       </c>
       <c r="G33" s="15">
-        <v>2180228</v>
+        <v>150483</v>
       </c>
       <c r="H33" s="15">
-        <v>150483</v>
+        <v>126335</v>
       </c>
       <c r="I33" s="15">
-        <v>126335</v>
+        <v>125994</v>
       </c>
       <c r="J33" s="15">
-        <v>125994</v>
+        <v>5025972</v>
       </c>
       <c r="K33" s="15">
-        <v>5025972</v>
+        <v>1828709</v>
       </c>
       <c r="L33" s="15">
-        <v>1828709</v>
+        <v>179836</v>
       </c>
       <c r="M33" s="15">
-        <v>179836</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>147480</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1703,28 +1739,28 @@
         <v>34320</v>
       </c>
       <c r="G34" s="11">
+        <v>36470</v>
+      </c>
+      <c r="H34" s="11">
+        <v>27890</v>
+      </c>
+      <c r="I34" s="11">
         <v>34320</v>
-      </c>
-      <c r="H34" s="11">
-        <v>36470</v>
-      </c>
-      <c r="I34" s="11">
-        <v>27890</v>
       </c>
       <c r="J34" s="11">
         <v>34320</v>
       </c>
       <c r="K34" s="11">
-        <v>34320</v>
+        <v>19389</v>
       </c>
       <c r="L34" s="11">
-        <v>19389</v>
+        <v>17160</v>
       </c>
       <c r="M34" s="11">
-        <v>17160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1796,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1399949</v>
+        <v>1455120</v>
       </c>
       <c r="E37" s="17">
-        <v>1455120</v>
+        <v>1534564</v>
       </c>
       <c r="F37" s="17">
-        <v>1534564</v>
+        <v>2941096</v>
       </c>
       <c r="G37" s="17">
-        <v>2941096</v>
+        <v>2566814</v>
       </c>
       <c r="H37" s="17">
-        <v>2566814</v>
+        <v>2656557</v>
       </c>
       <c r="I37" s="17">
-        <v>2656557</v>
+        <v>2683182</v>
       </c>
       <c r="J37" s="17">
-        <v>2683182</v>
+        <v>7724667</v>
       </c>
       <c r="K37" s="17">
-        <v>7724667</v>
+        <v>6882185</v>
       </c>
       <c r="L37" s="17">
-        <v>6882185</v>
+        <v>3491909</v>
       </c>
       <c r="M37" s="17">
-        <v>3491909</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4896061</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1904,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1913,19 +1949,19 @@
         <v>51480</v>
       </c>
       <c r="E40" s="11">
-        <v>51480</v>
+        <v>34320</v>
       </c>
       <c r="F40" s="11">
         <v>34320</v>
       </c>
       <c r="G40" s="11">
-        <v>34320</v>
+        <v>17160</v>
       </c>
       <c r="H40" s="11">
         <v>17160</v>
       </c>
       <c r="I40" s="11">
-        <v>17160</v>
+        <v>0</v>
       </c>
       <c r="J40" s="11">
         <v>0</v>
@@ -1940,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>236048</v>
+        <v>241238</v>
       </c>
       <c r="E41" s="15">
-        <v>241238</v>
+        <v>242009</v>
       </c>
       <c r="F41" s="15">
-        <v>242009</v>
+        <v>325502</v>
       </c>
       <c r="G41" s="15">
-        <v>325502</v>
+        <v>318100</v>
       </c>
       <c r="H41" s="15">
-        <v>318100</v>
+        <v>336577</v>
       </c>
       <c r="I41" s="15">
-        <v>336577</v>
+        <v>353916</v>
       </c>
       <c r="J41" s="15">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="K41" s="15">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="L41" s="15">
-        <v>546069</v>
+        <v>554566</v>
       </c>
       <c r="M41" s="15">
-        <v>554566</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>614928</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>287528</v>
+        <v>292718</v>
       </c>
       <c r="E42" s="19">
-        <v>292718</v>
+        <v>276329</v>
       </c>
       <c r="F42" s="19">
-        <v>276329</v>
+        <v>359822</v>
       </c>
       <c r="G42" s="19">
-        <v>359822</v>
+        <v>335260</v>
       </c>
       <c r="H42" s="19">
-        <v>335260</v>
+        <v>353737</v>
       </c>
       <c r="I42" s="19">
-        <v>353737</v>
+        <v>353916</v>
       </c>
       <c r="J42" s="19">
-        <v>353916</v>
+        <v>532744</v>
       </c>
       <c r="K42" s="19">
-        <v>532744</v>
+        <v>546069</v>
       </c>
       <c r="L42" s="19">
-        <v>546069</v>
+        <v>554566</v>
       </c>
       <c r="M42" s="19">
-        <v>554566</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>614928</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>1687477</v>
+        <v>1747838</v>
       </c>
       <c r="E43" s="17">
-        <v>1747838</v>
+        <v>1810893</v>
       </c>
       <c r="F43" s="17">
-        <v>1810893</v>
+        <v>3300918</v>
       </c>
       <c r="G43" s="17">
-        <v>3300918</v>
+        <v>2902074</v>
       </c>
       <c r="H43" s="17">
-        <v>2902074</v>
+        <v>3010294</v>
       </c>
       <c r="I43" s="17">
-        <v>3010294</v>
+        <v>3037098</v>
       </c>
       <c r="J43" s="17">
-        <v>3037098</v>
+        <v>8257411</v>
       </c>
       <c r="K43" s="17">
-        <v>8257411</v>
+        <v>7428254</v>
       </c>
       <c r="L43" s="17">
-        <v>7428254</v>
+        <v>4046475</v>
       </c>
       <c r="M43" s="17">
-        <v>4046475</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5510989</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2064,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2100,7 +2136,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2136,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2181,34 +2217,34 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-66171</v>
       </c>
       <c r="F48" s="11">
-        <v>-66171</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-13728</v>
       </c>
       <c r="H48" s="11">
         <v>-13728</v>
       </c>
       <c r="I48" s="11">
-        <v>-13728</v>
+        <v>-58111</v>
       </c>
       <c r="J48" s="11">
         <v>-58111</v>
       </c>
       <c r="K48" s="11">
-        <v>-58111</v>
+        <v>-13</v>
       </c>
       <c r="L48" s="11">
         <v>-13</v>
       </c>
       <c r="M48" s="11">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3440</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2217,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>7168</v>
       </c>
       <c r="F49" s="15">
-        <v>7168</v>
+        <v>0</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -2229,22 +2265,22 @@
         <v>0</v>
       </c>
       <c r="I49" s="15">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J49" s="15">
         <v>555</v>
       </c>
       <c r="K49" s="15">
-        <v>555</v>
+        <v>8458</v>
       </c>
       <c r="L49" s="15">
         <v>8458</v>
       </c>
       <c r="M49" s="15">
-        <v>8458</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +2316,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2316,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2352,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2424,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2460,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1599351</v>
+        <v>2744625</v>
       </c>
       <c r="E56" s="11">
-        <v>2744625</v>
+        <v>3514338</v>
       </c>
       <c r="F56" s="11">
-        <v>3514338</v>
+        <v>2057319</v>
       </c>
       <c r="G56" s="11">
-        <v>2057319</v>
+        <v>2587528</v>
       </c>
       <c r="H56" s="11">
-        <v>2587528</v>
+        <v>4408331</v>
       </c>
       <c r="I56" s="11">
-        <v>4408331</v>
+        <v>5455504</v>
       </c>
       <c r="J56" s="11">
-        <v>5455504</v>
+        <v>2250258</v>
       </c>
       <c r="K56" s="11">
-        <v>2250258</v>
+        <v>4617223</v>
       </c>
       <c r="L56" s="11">
-        <v>4617223</v>
+        <v>7693111</v>
       </c>
       <c r="M56" s="11">
-        <v>7693111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10840082</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>2314351</v>
+        <v>3459625</v>
       </c>
       <c r="E57" s="17">
-        <v>3459625</v>
+        <v>4170335</v>
       </c>
       <c r="F57" s="17">
-        <v>4170335</v>
+        <v>2772319</v>
       </c>
       <c r="G57" s="17">
-        <v>2772319</v>
+        <v>3288800</v>
       </c>
       <c r="H57" s="17">
-        <v>3288800</v>
+        <v>5109603</v>
       </c>
       <c r="I57" s="17">
-        <v>5109603</v>
+        <v>6112948</v>
       </c>
       <c r="J57" s="17">
-        <v>6112948</v>
+        <v>2907702</v>
       </c>
       <c r="K57" s="17">
-        <v>2907702</v>
+        <v>5340668</v>
       </c>
       <c r="L57" s="17">
-        <v>5340668</v>
+        <v>8416556</v>
       </c>
       <c r="M57" s="17">
-        <v>8416556</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11556427</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>4001828</v>
+        <v>5207463</v>
       </c>
       <c r="E58" s="19">
-        <v>5207463</v>
+        <v>5981228</v>
       </c>
       <c r="F58" s="19">
-        <v>5981228</v>
+        <v>6073237</v>
       </c>
       <c r="G58" s="19">
-        <v>6073237</v>
+        <v>6190874</v>
       </c>
       <c r="H58" s="19">
-        <v>6190874</v>
+        <v>8119897</v>
       </c>
       <c r="I58" s="19">
-        <v>8119897</v>
+        <v>9150046</v>
       </c>
       <c r="J58" s="19">
-        <v>9150046</v>
+        <v>11165113</v>
       </c>
       <c r="K58" s="19">
-        <v>11165113</v>
+        <v>12768922</v>
       </c>
       <c r="L58" s="19">
-        <v>12768922</v>
+        <v>12463031</v>
       </c>
       <c r="M58" s="19">
-        <v>12463031</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17067416</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/siman/save/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/save/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\siman\save\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A90D27-7970-4355-812C-5F11A16AD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EDBB89-46D1-4CCD-BB19-ABECE342604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,33 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-02-15 (10)</t>
+  </si>
+  <si>
+    <t>1398-12-10 (2)</t>
+  </si>
+  <si>
+    <t>1398-12-11 (2)</t>
+  </si>
+  <si>
+    <t>1400-02-19 (11)</t>
+  </si>
+  <si>
+    <t>1399-04-27</t>
+  </si>
+  <si>
+    <t>1399-09-05 (2)</t>
+  </si>
+  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -97,7 +145,13 @@
     <t>1401-11-19 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -106,6 +160,9 @@
     <t>موجودی نقد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سرمایه گذاری کوتاه مدت</t>
   </si>
   <si>
@@ -140,9 +197,6 @@
   </si>
   <si>
     <t>پیش پرداخت های سرمایه ای</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,9 +796,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1014,100 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1120,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,200 +1146,360 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="15">
+        <v>479659</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="15">
+        <v>496555</v>
+      </c>
+      <c r="H12" s="15">
+        <v>519378</v>
+      </c>
+      <c r="I12" s="15">
+        <v>542721</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1542837</v>
+      </c>
+      <c r="K12" s="15">
+        <v>628737</v>
+      </c>
+      <c r="L12" s="15">
         <v>539172</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>819625</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>210560</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>1421181</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>882761</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>1224333</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>3409514</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>3292993</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>1708760</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>1251834</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1921684</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1894328</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11">
+        <v>400000</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>150000</v>
+      </c>
+      <c r="L13" s="11">
         <v>1301499</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>2084468</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>2130113</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>951020</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>3031778</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>3166748</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>3166748</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>3713154</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>3758124</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>7051746</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>9514654</v>
+      </c>
+      <c r="W13" s="11">
+        <v>4065666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="15">
+        <v>296028</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="15">
+        <v>488628</v>
+      </c>
+      <c r="H14" s="15">
+        <v>555928</v>
+      </c>
+      <c r="I14" s="15">
+        <v>678642</v>
+      </c>
+      <c r="J14" s="15">
+        <v>745958</v>
+      </c>
+      <c r="K14" s="15">
+        <v>851191</v>
+      </c>
+      <c r="L14" s="15">
         <v>668421</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>243705</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>200558</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>167720</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>90811</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>153222</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>167820</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>217659</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>400577</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>593130</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>647574</v>
+      </c>
+      <c r="W14" s="15">
+        <v>1242571</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11">
+        <v>940308</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1002042</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1158524</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1095059</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1144168</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1547454</v>
+      </c>
+      <c r="L15" s="11">
         <v>1880417</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>1936525</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>2048790</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>2230119</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>2664833</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>3055890</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>2930414</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>4216028</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>4348400</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>5147002</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>5711914</v>
+      </c>
+      <c r="W15" s="11">
+        <v>6518138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="15">
+        <v>64092</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="15">
+        <v>69449</v>
+      </c>
+      <c r="H16" s="15">
+        <v>97458</v>
+      </c>
+      <c r="I16" s="15">
+        <v>314356</v>
+      </c>
+      <c r="J16" s="15">
+        <v>155341</v>
+      </c>
+      <c r="K16" s="15">
+        <v>248554</v>
+      </c>
+      <c r="L16" s="15">
         <v>236120</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>301162</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>274095</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>281036</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>237817</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>403210</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>317726</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>194236</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>630328</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>1039192</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>1106028</v>
+      </c>
+      <c r="W16" s="15">
+        <v>1411883</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>0</v>
+      <c r="D17" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
+      <c r="F17" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -1167,56 +1522,116 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2180087</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2206674</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2481288</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2780778</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3738304</v>
+      </c>
+      <c r="K18" s="17">
+        <v>3425936</v>
+      </c>
+      <c r="L18" s="17">
         <v>4625629</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>5385485</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>4864116</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>5051076</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>6908000</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>8003403</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>9992222</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>11634070</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>10846189</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>15082904</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>18901854</v>
+      </c>
+      <c r="W18" s="17">
+        <v>15132586</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>0</v>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
+      <c r="F19" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -1239,56 +1654,116 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <v>6258</v>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="15">
         <v>6258</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="H20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="I20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="J20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="K20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="L20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="M20" s="15">
+        <v>6258</v>
+      </c>
+      <c r="N20" s="15">
         <v>678147</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>552791</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>628811</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>566248</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>601477</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>566248</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>922755</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>1238176</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>1238176</v>
+      </c>
+      <c r="W20" s="15">
+        <v>1214826</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
+      <c r="F21" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -1311,56 +1786,116 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15">
+        <v>561003</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="15">
+        <v>536284</v>
+      </c>
+      <c r="H22" s="15">
+        <v>526645</v>
+      </c>
+      <c r="I22" s="15">
+        <v>523674</v>
+      </c>
+      <c r="J22" s="15">
+        <v>520239</v>
+      </c>
+      <c r="K22" s="15">
+        <v>511193</v>
+      </c>
+      <c r="L22" s="15">
         <v>517135</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>531044</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>472533</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>528566</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>524645</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>521954</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>512973</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>510163</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>633696</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>684469</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>1608586</v>
+      </c>
+      <c r="W22" s="15">
+        <v>1730669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
-        <v>58441</v>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E23" s="11">
         <v>58441</v>
       </c>
-      <c r="F23" s="11">
-        <v>58441</v>
+      <c r="F23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="11">
         <v>58441</v>
@@ -1378,61 +1913,121 @@
         <v>58441</v>
       </c>
       <c r="L23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="M23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="N23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="O23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="P23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="R23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="S23" s="11">
+        <v>58441</v>
+      </c>
+      <c r="T23" s="11">
         <v>60391</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>61867</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>75899</v>
+      </c>
+      <c r="W23" s="11">
+        <v>75899</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
+      <c r="F25" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -1455,82 +2050,172 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="17">
+        <v>625702</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="17">
+        <v>600983</v>
+      </c>
+      <c r="H26" s="17">
+        <v>591344</v>
+      </c>
+      <c r="I26" s="17">
+        <v>588373</v>
+      </c>
+      <c r="J26" s="17">
+        <v>584938</v>
+      </c>
+      <c r="K26" s="17">
+        <v>575892</v>
+      </c>
+      <c r="L26" s="17">
         <v>581834</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>595743</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>1209121</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>1139798</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>1211897</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>1146643</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>1172891</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>1134852</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>1616842</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>1984512</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>2922661</v>
+      </c>
+      <c r="W26" s="17">
+        <v>3021394</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2805789</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2807657</v>
+      </c>
+      <c r="H27" s="19">
+        <v>3072632</v>
+      </c>
+      <c r="I27" s="19">
+        <v>3369151</v>
+      </c>
+      <c r="J27" s="19">
+        <v>4323242</v>
+      </c>
+      <c r="K27" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="L27" s="19">
         <v>5207463</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>5981228</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>6073237</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>6190874</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>8119897</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>9150046</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>11165113</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>12768922</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>12463031</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>17067416</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>21824515</v>
+      </c>
+      <c r="W27" s="19">
+        <v>18153980</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,236 +2228,426 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="15">
+        <v>394621</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="15">
+        <v>509673</v>
+      </c>
+      <c r="H29" s="15">
+        <v>471418</v>
+      </c>
+      <c r="I29" s="15">
+        <v>353925</v>
+      </c>
+      <c r="J29" s="15">
+        <v>425861</v>
+      </c>
+      <c r="K29" s="15">
+        <v>521071</v>
+      </c>
+      <c r="L29" s="15">
         <v>492741</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>448646</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>531435</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>631991</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>830963</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>1083385</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>913570</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>2560323</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>925703</v>
       </c>
-      <c r="M29" s="15">
+      <c r="U29" s="15">
         <v>1891976</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>1610423</v>
+      </c>
+      <c r="W29" s="15">
+        <v>2675280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="15">
+        <v>72647</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="15">
+        <v>102562</v>
+      </c>
+      <c r="H31" s="15">
+        <v>100628</v>
+      </c>
+      <c r="I31" s="15">
+        <v>92885</v>
+      </c>
+      <c r="J31" s="15">
+        <v>99729</v>
+      </c>
+      <c r="K31" s="15">
+        <v>283808</v>
+      </c>
+      <c r="L31" s="15">
         <v>366025</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>477357</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>195113</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>1007589</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>936668</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>681268</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>1105663</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>1072856</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>714195</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>1017875</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>1085025</v>
+      </c>
+      <c r="W31" s="15">
+        <v>1116221</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11">
+      <c r="D32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="11">
+        <v>160048</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="11">
+        <v>208590</v>
+      </c>
+      <c r="H32" s="11">
+        <v>300168</v>
+      </c>
+      <c r="I32" s="11">
+        <v>268397</v>
+      </c>
+      <c r="J32" s="11">
+        <v>364101</v>
+      </c>
+      <c r="K32" s="11">
+        <v>417226</v>
+      </c>
+      <c r="L32" s="11">
         <v>418593</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>457817</v>
       </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
         <v>740281</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>734701</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>758215</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>645142</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>1400908</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>1655015</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>1838730</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>2267290</v>
+      </c>
+      <c r="W32" s="11">
+        <v>2042711</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="D33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="15">
+        <v>315093</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="15">
+        <v>147270</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1495000</v>
+      </c>
+      <c r="K33" s="15">
+        <v>143524</v>
+      </c>
+      <c r="L33" s="15">
         <v>143441</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>116424</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>2180228</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>150483</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>126335</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>125994</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>5025972</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>1828709</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>179836</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>147480</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>9882347</v>
+      </c>
+      <c r="W33" s="15">
+        <v>85340</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11">
-        <v>34320</v>
+      <c r="D34" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="11">
-        <v>34320</v>
-      </c>
-      <c r="F34" s="11">
-        <v>34320</v>
+        <v>110946</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G34" s="11">
-        <v>36470</v>
+        <v>60993</v>
       </c>
       <c r="H34" s="11">
-        <v>27890</v>
+        <v>34319</v>
       </c>
       <c r="I34" s="11">
         <v>34320</v>
       </c>
       <c r="J34" s="11">
+        <v>42900</v>
+      </c>
+      <c r="K34" s="11">
         <v>34320</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="M34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="N34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="O34" s="11">
+        <v>36470</v>
+      </c>
+      <c r="P34" s="11">
+        <v>27890</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="R34" s="11">
+        <v>34320</v>
+      </c>
+      <c r="S34" s="11">
         <v>19389</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>17160</v>
       </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U34" s="11">
+        <v>0</v>
+      </c>
+      <c r="V34" s="11">
+        <v>341680</v>
+      </c>
+      <c r="W34" s="11">
+        <v>1348783</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
-        <v>0</v>
+      <c r="D35" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -1795,20 +2670,50 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
-        <v>0</v>
+      <c r="F36" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -1831,56 +2736,116 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1053355</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1029088</v>
+      </c>
+      <c r="H37" s="17">
+        <v>906533</v>
+      </c>
+      <c r="I37" s="17">
+        <v>749527</v>
+      </c>
+      <c r="J37" s="17">
+        <v>2427591</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1399949</v>
+      </c>
+      <c r="L37" s="17">
         <v>1455120</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>1534564</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>2941096</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>2566814</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>2656557</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>2683182</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>7724667</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>6882185</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>3491909</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>4896061</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>15186765</v>
+      </c>
+      <c r="W37" s="17">
+        <v>7268335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
+      <c r="F38" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1903,190 +2868,370 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
+      <c r="D40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="11">
+        <v>102960</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="11">
+        <v>85800</v>
+      </c>
+      <c r="H40" s="11">
+        <v>85800</v>
+      </c>
+      <c r="I40" s="11">
+        <v>68640</v>
+      </c>
+      <c r="J40" s="11">
+        <v>68640</v>
+      </c>
+      <c r="K40" s="11">
         <v>51480</v>
       </c>
-      <c r="E40" s="11">
+      <c r="L40" s="11">
+        <v>51480</v>
+      </c>
+      <c r="M40" s="11">
         <v>34320</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>34320</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>17160</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>17160</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="15">
+        <v>138879</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="15">
+        <v>191757</v>
+      </c>
+      <c r="H41" s="15">
+        <v>187516</v>
+      </c>
+      <c r="I41" s="15">
+        <v>190131</v>
+      </c>
+      <c r="J41" s="15">
+        <v>236150</v>
+      </c>
+      <c r="K41" s="15">
+        <v>236048</v>
+      </c>
+      <c r="L41" s="15">
         <v>241238</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>242009</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>325502</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>318100</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>336577</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>353916</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>532744</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>546069</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>554566</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>614928</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>761429</v>
+      </c>
+      <c r="W41" s="15">
+        <v>786434</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19">
+      <c r="D42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="19">
+        <v>241839</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="19">
+        <v>277557</v>
+      </c>
+      <c r="H42" s="19">
+        <v>273316</v>
+      </c>
+      <c r="I42" s="19">
+        <v>258771</v>
+      </c>
+      <c r="J42" s="19">
+        <v>304790</v>
+      </c>
+      <c r="K42" s="19">
+        <v>287528</v>
+      </c>
+      <c r="L42" s="19">
         <v>292718</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>276329</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>359822</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>335260</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>353737</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>353916</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>532744</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>546069</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>554566</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>614928</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>761429</v>
+      </c>
+      <c r="W42" s="19">
+        <v>786434</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1295194</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1306645</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1179849</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1008298</v>
+      </c>
+      <c r="J43" s="17">
+        <v>2732381</v>
+      </c>
+      <c r="K43" s="17">
+        <v>1687477</v>
+      </c>
+      <c r="L43" s="17">
         <v>1747838</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>1810893</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>3300918</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>2902074</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>3010294</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>3037098</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>8257411</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>7428254</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>4046475</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>5510989</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>15948194</v>
+      </c>
+      <c r="W43" s="17">
+        <v>8054769</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,20 +3244,30 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
-        <v>650000</v>
+      <c r="D45" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E45" s="15">
         <v>650000</v>
       </c>
-      <c r="F45" s="15">
-        <v>650000</v>
+      <c r="F45" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G45" s="15">
         <v>650000</v>
@@ -2135,20 +3290,50 @@
       <c r="M45" s="15">
         <v>650000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="R45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="S45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="T45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="U45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="V45" s="15">
+        <v>650000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
+      <c r="F46" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -2171,20 +3356,50 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
+      <c r="F47" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -2207,92 +3422,182 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>-66171</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
         <v>-13728</v>
       </c>
-      <c r="H48" s="11">
+      <c r="P48" s="11">
         <v>-13728</v>
       </c>
-      <c r="I48" s="11">
+      <c r="Q48" s="11">
         <v>-58111</v>
       </c>
-      <c r="J48" s="11">
+      <c r="R48" s="11">
         <v>-58111</v>
       </c>
-      <c r="K48" s="11">
+      <c r="S48" s="11">
         <v>-13</v>
       </c>
-      <c r="L48" s="11">
+      <c r="T48" s="11">
         <v>-13</v>
       </c>
-      <c r="M48" s="11">
+      <c r="U48" s="11">
         <v>-3440</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V48" s="11">
+        <v>-3440</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-12611</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
         <v>7168</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
         <v>555</v>
       </c>
-      <c r="J49" s="15">
+      <c r="R49" s="15">
         <v>555</v>
       </c>
-      <c r="K49" s="15">
+      <c r="S49" s="15">
         <v>8458</v>
       </c>
-      <c r="L49" s="15">
+      <c r="T49" s="15">
         <v>8458</v>
       </c>
-      <c r="M49" s="15">
+      <c r="U49" s="15">
         <v>4785</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V49" s="15">
+        <v>4785</v>
+      </c>
+      <c r="W49" s="15">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
-        <v>65000</v>
+      <c r="D50" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E50" s="11">
         <v>65000</v>
       </c>
-      <c r="F50" s="11">
-        <v>65000</v>
+      <c r="F50" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G50" s="11">
         <v>65000</v>
@@ -2315,20 +3620,50 @@
       <c r="M50" s="11">
         <v>65000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="P50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="R50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="S50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="T50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="U50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="V50" s="11">
+        <v>65000</v>
+      </c>
+      <c r="W50" s="11">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15">
-        <v>0</v>
+      <c r="D51" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
-      <c r="F51" s="15">
-        <v>0</v>
+      <c r="F51" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
@@ -2351,56 +3686,116 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
-        <v>0</v>
+      <c r="D53" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
+      <c r="F53" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G53" s="15">
         <v>0</v>
@@ -2423,56 +3818,116 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>0</v>
+      <c r="D55" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
+      <c r="F55" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -2495,116 +3950,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="11">
+        <v>795595</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="11">
+        <v>786012</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1177783</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1645853</v>
+      </c>
+      <c r="J56" s="11">
+        <v>875861</v>
+      </c>
+      <c r="K56" s="11">
+        <v>1599351</v>
+      </c>
+      <c r="L56" s="11">
         <v>2744625</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>3514338</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>2057319</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>2587528</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>4408331</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>5455504</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>2250258</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>4617223</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>7693111</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>10840082</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>5159976</v>
+      </c>
+      <c r="W56" s="11">
+        <v>9392348</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
+      <c r="D57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1510595</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1501012</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1892783</v>
+      </c>
+      <c r="I57" s="17">
+        <v>2360853</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1590861</v>
+      </c>
+      <c r="K57" s="17">
+        <v>2314351</v>
+      </c>
+      <c r="L57" s="17">
         <v>3459625</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>4170335</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>2772319</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>3288800</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>5109603</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>6112948</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>2907702</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>5340668</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>8416556</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>11556427</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>5876321</v>
+      </c>
+      <c r="W57" s="17">
+        <v>10099211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="19">
+        <v>2805789</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="19">
+        <v>2807657</v>
+      </c>
+      <c r="H58" s="19">
+        <v>3072632</v>
+      </c>
+      <c r="I58" s="19">
+        <v>3369151</v>
+      </c>
+      <c r="J58" s="19">
+        <v>4323242</v>
+      </c>
+      <c r="K58" s="19">
+        <v>4001828</v>
+      </c>
+      <c r="L58" s="19">
         <v>5207463</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>5981228</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>6073237</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>6190874</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>8119897</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>9150046</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>11165113</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>12768922</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>12463031</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>17067416</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>21824515</v>
+      </c>
+      <c r="W58" s="19">
+        <v>18153980</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4192,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
